--- a/biology/Botanique/Pentameris/Pentameris.xlsx
+++ b/biology/Botanique/Pentameris/Pentameris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Pentameris  est un genre de plantes monocotylédones de la famille des Poaceae, sous-famille des Pooideae, originaire principalement d'Afrique, qui comprend une dizaine d'espèces.
-Le nombre d'espèce rattachées au genre Pentameris est toutefois variable selon la délimitation du genre, car celui-ci forme un groupe paraphylétique avec les genres voisins Pentaschistis et Prionanthium[2].
+Le nombre d'espèce rattachées au genre Pentameris est toutefois variable selon la délimitation du genre, car celui-ci forme un groupe paraphylétique avec les genres voisins Pentaschistis et Prionanthium.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (10 octobre 2017)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (10 octobre 2017) :
 Pentameris acinosa (Stapf) Galley &amp; H.P.Linder
 Pentameris airoides (Nees) Steud.
 Pentameris alticola (H.P.Linder) Galley &amp; H.P.Linder
@@ -597,7 +611,7 @@
 Pentameris velutina (H.P.Linder) Galley &amp; H.P.Linder
 Pentameris veneta (H.P.Linder) Galley &amp; H.P.Linder
 Pentameris viscidula (Nees) Steud.
-Selon The Plant List            (10 octobre 2017)[4] :
+Selon The Plant List            (10 octobre 2017) :
 Pentameris dregeana Stapf
 Pentameris glacialis N.P.Barker
 Pentameris hirtiglumis N.P.Barker
